--- a/NformTester/NformTester/Keywordscripts/600.20.30.130_UsersCanDeleteActionSetsIfTheyHaveRights.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.130_UsersCanDeleteActionSetsIfTheyHaveRights.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7283" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7295" uniqueCount="817">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3931,7 +3931,49 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3976,74 +4018,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4475,7 +4449,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4752,10 +4726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4966,7 +4940,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -6066,15 +6040,13 @@
         <v>300</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="I47" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
@@ -6090,16 +6062,16 @@
         <v>797</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
@@ -6112,17 +6084,19 @@
         <v>48</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F49" s="19">
-        <v>5</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
@@ -6141,12 +6115,14 @@
         <v>300</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>811</v>
+      </c>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
@@ -6155,29 +6131,110 @@
       <c r="N50" s="21"/>
       <c r="O50" s="18"/>
     </row>
+    <row r="51" spans="3:15">
+      <c r="C51" s="2">
+        <v>50</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="18"/>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="2">
+        <v>51</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F52" s="19">
+        <v>5</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="18"/>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="C53" s="2">
+        <v>52</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N34">
-    <cfRule type="cellIs" dxfId="5" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N36">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N50">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N35:N53">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48:N49">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6185,13 +6242,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D34 D6:D30 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G53">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E53">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.130_UsersCanDeleteActionSetsIfTheyHaveRights.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.130_UsersCanDeleteActionSetsIfTheyHaveRights.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7295" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7299" uniqueCount="819">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3697,6 +3697,13 @@
   <si>
     <t>;Delete the action.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_license</t>
   </si>
 </sst>
 </file>
@@ -3931,35 +3938,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -4726,10 +4705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4940,7 +4919,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -5420,8 +5399,12 @@
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>818</v>
+      </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
@@ -5727,26 +5710,24 @@
       <c r="C35" s="2">
         <v>34</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>797</v>
+      <c r="D35" s="6" t="s">
+        <v>791</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="18"/>
+        <v>792</v>
+      </c>
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="3:15">
       <c r="C36" s="2">
@@ -5759,12 +5740,12 @@
         <v>19</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
@@ -5781,18 +5762,16 @@
         <v>797</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="I37" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -5811,12 +5790,14 @@
         <v>300</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>811</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
@@ -5833,18 +5814,16 @@
         <v>797</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="I39" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
@@ -5863,12 +5842,14 @@
         <v>304</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>812</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
@@ -5885,10 +5866,10 @@
         <v>797</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>2</v>
@@ -5910,17 +5891,15 @@
         <v>797</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>375</v>
+        <v>22</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>813</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -5940,12 +5919,14 @@
         <v>374</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>178</v>
+        <v>375</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>813</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -5965,7 +5946,7 @@
         <v>374</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>2</v>
@@ -5987,7 +5968,7 @@
         <v>797</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>95</v>
@@ -6012,7 +5993,7 @@
         <v>797</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>95</v>
@@ -6037,7 +6018,7 @@
         <v>797</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>95</v>
@@ -6062,10 +6043,10 @@
         <v>797</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>2</v>
@@ -6090,12 +6071,12 @@
         <v>19</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
@@ -6112,18 +6093,16 @@
         <v>797</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="I50" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
@@ -6142,12 +6121,14 @@
         <v>300</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>811</v>
+      </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
@@ -6161,16 +6142,18 @@
         <v>51</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F52" s="19">
-        <v>5</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
@@ -6184,18 +6167,16 @@
         <v>52</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="19"/>
+        <v>792</v>
+      </c>
+      <c r="F53" s="19">
+        <v>5</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
@@ -6204,51 +6185,76 @@
       <c r="N53" s="21"/>
       <c r="O53" s="18"/>
     </row>
+    <row r="54" spans="3:15">
+      <c r="C54" s="2">
+        <v>53</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N34">
-    <cfRule type="cellIs" dxfId="11" priority="31" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N35">
+    <cfRule type="cellIs" dxfId="7" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N36">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N36:N37">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N53">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N36:N54">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N48:N49">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N49:N50">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D34 D6:D30 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D6:D30 D32:D35">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G54">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E54">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
